--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il4-Cd53.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il4-Cd53.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +95,6 @@
   </si>
   <si>
     <t>Cd53</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H2">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I2">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J2">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>209.721536821121</v>
+        <v>0.772999</v>
       </c>
       <c r="N2">
-        <v>209.721536821121</v>
+        <v>2.318997</v>
       </c>
       <c r="O2">
-        <v>0.4314473906060302</v>
+        <v>0.001463454091077021</v>
       </c>
       <c r="P2">
-        <v>0.4314473906060302</v>
+        <v>0.001464302759660565</v>
       </c>
       <c r="Q2">
-        <v>258.410325648059</v>
+        <v>0.3711915431366666</v>
       </c>
       <c r="R2">
-        <v>258.410325648059</v>
+        <v>3.34072388823</v>
       </c>
       <c r="S2">
-        <v>0.228865666517061</v>
+        <v>0.0001733888468060872</v>
       </c>
       <c r="T2">
-        <v>0.228865666517061</v>
+        <v>0.0001907162770950337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,185 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H3">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I3">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J3">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>276.366782142952</v>
+        <v>236.8971606666667</v>
       </c>
       <c r="N3">
-        <v>276.366782142952</v>
+        <v>710.691482</v>
       </c>
       <c r="O3">
-        <v>0.5685526093939698</v>
+        <v>0.4484974999219451</v>
       </c>
       <c r="P3">
-        <v>0.5685526093939698</v>
+        <v>0.4487575871636991</v>
       </c>
       <c r="Q3">
-        <v>340.5278792744099</v>
+        <v>113.7572268949311</v>
       </c>
       <c r="R3">
-        <v>340.5278792744099</v>
+        <v>1023.81504205438</v>
       </c>
       <c r="S3">
-        <v>0.3015945274722597</v>
+        <v>0.05313761790070838</v>
       </c>
       <c r="T3">
-        <v>0.3015945274722597</v>
+        <v>0.05844786932031054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.09065262319769</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H4">
-        <v>1.09065262319769</v>
+        <v>1.44059</v>
       </c>
       <c r="I4">
-        <v>0.4695398060106792</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J4">
-        <v>0.4695398060106792</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>209.721536821121</v>
+        <v>289.6131896666666</v>
       </c>
       <c r="N4">
-        <v>209.721536821121</v>
+        <v>868.839569</v>
       </c>
       <c r="O4">
-        <v>0.4314473906060302</v>
+        <v>0.5483003305923404</v>
       </c>
       <c r="P4">
-        <v>0.4314473906060302</v>
+        <v>0.5486182942836907</v>
       </c>
       <c r="Q4">
-        <v>228.7333442750065</v>
+        <v>139.0712883006344</v>
       </c>
       <c r="R4">
-        <v>228.7333442750065</v>
+        <v>1251.64159470571</v>
       </c>
       <c r="S4">
-        <v>0.2025817240889692</v>
+        <v>0.06496217585810063</v>
       </c>
       <c r="T4">
-        <v>0.2025817240889692</v>
+        <v>0.07145410192101745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.4801966666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.44059</v>
+      </c>
+      <c r="I5">
+        <v>0.1184791841871053</v>
+      </c>
+      <c r="J5">
+        <v>0.1302437462722826</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.9183924999999999</v>
+      </c>
+      <c r="N5">
+        <v>1.836785</v>
+      </c>
+      <c r="O5">
+        <v>0.001738715394637578</v>
+      </c>
+      <c r="P5">
+        <v>0.001159815792949767</v>
+      </c>
+      <c r="Q5">
+        <v>0.4410090171916666</v>
+      </c>
+      <c r="R5">
+        <v>2.64605410315</v>
+      </c>
+      <c r="S5">
+        <v>0.0002060015814902211</v>
+      </c>
+      <c r="T5">
+        <v>0.0001510587538595356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.748562333333333</v>
+      </c>
+      <c r="H6">
+        <v>5.245687</v>
+      </c>
+      <c r="I6">
+        <v>0.4314237335125913</v>
+      </c>
+      <c r="J6">
+        <v>0.4742625775909947</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.772999</v>
+      </c>
+      <c r="N6">
+        <v>2.318997</v>
+      </c>
+      <c r="O6">
+        <v>0.001463454091077021</v>
+      </c>
+      <c r="P6">
+        <v>0.001464302759660565</v>
+      </c>
+      <c r="Q6">
+        <v>1.351636935104333</v>
+      </c>
+      <c r="R6">
+        <v>12.164732415939</v>
+      </c>
+      <c r="S6">
+        <v>0.0006313688277967242</v>
+      </c>
+      <c r="T6">
+        <v>0.0006944640011702263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.748562333333333</v>
+      </c>
+      <c r="H7">
+        <v>5.245687</v>
+      </c>
+      <c r="I7">
+        <v>0.4314237335125913</v>
+      </c>
+      <c r="J7">
+        <v>0.4742625775909947</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>236.8971606666667</v>
+      </c>
+      <c r="N7">
+        <v>710.691482</v>
+      </c>
+      <c r="O7">
+        <v>0.4484974999219451</v>
+      </c>
+      <c r="P7">
+        <v>0.4487575871636991</v>
+      </c>
+      <c r="Q7">
+        <v>414.2294520153482</v>
+      </c>
+      <c r="R7">
+        <v>3728.065068138134</v>
+      </c>
+      <c r="S7">
+        <v>0.1934924658873887</v>
+      </c>
+      <c r="T7">
+        <v>0.2128289300017714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.09065262319769</v>
-      </c>
-      <c r="H5">
-        <v>1.09065262319769</v>
-      </c>
-      <c r="I5">
-        <v>0.4695398060106792</v>
-      </c>
-      <c r="J5">
-        <v>0.4695398060106792</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>276.366782142952</v>
-      </c>
-      <c r="N5">
-        <v>276.366782142952</v>
-      </c>
-      <c r="O5">
-        <v>0.5685526093939698</v>
-      </c>
-      <c r="P5">
-        <v>0.5685526093939698</v>
-      </c>
-      <c r="Q5">
-        <v>301.4201559089151</v>
-      </c>
-      <c r="R5">
-        <v>301.4201559089151</v>
-      </c>
-      <c r="S5">
-        <v>0.2669580819217101</v>
-      </c>
-      <c r="T5">
-        <v>0.2669580819217101</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.748562333333333</v>
+      </c>
+      <c r="H8">
+        <v>5.245687</v>
+      </c>
+      <c r="I8">
+        <v>0.4314237335125913</v>
+      </c>
+      <c r="J8">
+        <v>0.4742625775909947</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>289.6131896666666</v>
+      </c>
+      <c r="N8">
+        <v>868.839569</v>
+      </c>
+      <c r="O8">
+        <v>0.5483003305923404</v>
+      </c>
+      <c r="P8">
+        <v>0.5486182942836907</v>
+      </c>
+      <c r="Q8">
+        <v>506.4067146876558</v>
+      </c>
+      <c r="R8">
+        <v>4557.660432188904</v>
+      </c>
+      <c r="S8">
+        <v>0.2365497757103356</v>
+      </c>
+      <c r="T8">
+        <v>0.260189126360558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.748562333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.245687</v>
+      </c>
+      <c r="I9">
+        <v>0.4314237335125913</v>
+      </c>
+      <c r="J9">
+        <v>0.4742625775909947</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.9183924999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.836785</v>
+      </c>
+      <c r="O9">
+        <v>0.001738715394637578</v>
+      </c>
+      <c r="P9">
+        <v>0.001159815792949767</v>
+      </c>
+      <c r="Q9">
+        <v>1.605866532715833</v>
+      </c>
+      <c r="R9">
+        <v>9.635199196295</v>
+      </c>
+      <c r="S9">
+        <v>0.0007501230870703623</v>
+      </c>
+      <c r="T9">
+        <v>0.0005500572274951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.482537</v>
+      </c>
+      <c r="I10">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J10">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.772999</v>
+      </c>
+      <c r="N10">
+        <v>2.318997</v>
+      </c>
+      <c r="O10">
+        <v>0.001463454091077021</v>
+      </c>
+      <c r="P10">
+        <v>0.001464302759660565</v>
+      </c>
+      <c r="Q10">
+        <v>0.1243335394876667</v>
+      </c>
+      <c r="R10">
+        <v>1.119001855389</v>
+      </c>
+      <c r="S10">
+        <v>5.807796386985116E-05</v>
+      </c>
+      <c r="T10">
+        <v>6.388192351786859E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.482537</v>
+      </c>
+      <c r="I11">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J11">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>236.8971606666667</v>
+      </c>
+      <c r="N11">
+        <v>710.691482</v>
+      </c>
+      <c r="O11">
+        <v>0.4484974999219451</v>
+      </c>
+      <c r="P11">
+        <v>0.4487575871636991</v>
+      </c>
+      <c r="Q11">
+        <v>38.10388173887044</v>
+      </c>
+      <c r="R11">
+        <v>342.934935649834</v>
+      </c>
+      <c r="S11">
+        <v>0.01779886486019903</v>
+      </c>
+      <c r="T11">
+        <v>0.01957757551990135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.482537</v>
+      </c>
+      <c r="I12">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J12">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>289.6131896666666</v>
+      </c>
+      <c r="N12">
+        <v>868.839569</v>
+      </c>
+      <c r="O12">
+        <v>0.5483003305923404</v>
+      </c>
+      <c r="P12">
+        <v>0.5486182942836907</v>
+      </c>
+      <c r="Q12">
+        <v>46.58302656739477</v>
+      </c>
+      <c r="R12">
+        <v>419.247239106553</v>
+      </c>
+      <c r="S12">
+        <v>0.02175959395250578</v>
+      </c>
+      <c r="T12">
+        <v>0.0239341158682637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.482537</v>
+      </c>
+      <c r="I13">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J13">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.9183924999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.836785</v>
+      </c>
+      <c r="O13">
+        <v>0.001738715394637578</v>
+      </c>
+      <c r="P13">
+        <v>0.001159815792949767</v>
+      </c>
+      <c r="Q13">
+        <v>0.1477194539241667</v>
+      </c>
+      <c r="R13">
+        <v>0.8863167235449999</v>
+      </c>
+      <c r="S13">
+        <v>6.900185696662257E-05</v>
+      </c>
+      <c r="T13">
+        <v>5.059832284766572E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.695328</v>
+      </c>
+      <c r="I14">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J14">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.772999</v>
+      </c>
+      <c r="N14">
+        <v>2.318997</v>
+      </c>
+      <c r="O14">
+        <v>0.001463454091077021</v>
+      </c>
+      <c r="P14">
+        <v>0.001464302759660565</v>
+      </c>
+      <c r="Q14">
+        <v>0.4368289495573334</v>
+      </c>
+      <c r="R14">
+        <v>3.931460546016</v>
+      </c>
+      <c r="S14">
+        <v>0.0002040490124727161</v>
+      </c>
+      <c r="T14">
+        <v>0.0002244404338604109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.695328</v>
+      </c>
+      <c r="I15">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J15">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>236.8971606666667</v>
+      </c>
+      <c r="N15">
+        <v>710.691482</v>
+      </c>
+      <c r="O15">
+        <v>0.4484974999219451</v>
+      </c>
+      <c r="P15">
+        <v>0.4487575871636991</v>
+      </c>
+      <c r="Q15">
+        <v>133.8727965328995</v>
+      </c>
+      <c r="R15">
+        <v>1204.855168796096</v>
+      </c>
+      <c r="S15">
+        <v>0.06253388644956034</v>
+      </c>
+      <c r="T15">
+        <v>0.06878314398896523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.695328</v>
+      </c>
+      <c r="I16">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J16">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>289.6131896666666</v>
+      </c>
+      <c r="N16">
+        <v>868.839569</v>
+      </c>
+      <c r="O16">
+        <v>0.5483003305923404</v>
+      </c>
+      <c r="P16">
+        <v>0.5486182942836907</v>
+      </c>
+      <c r="Q16">
+        <v>163.6631165370702</v>
+      </c>
+      <c r="R16">
+        <v>1472.968048833632</v>
+      </c>
+      <c r="S16">
+        <v>0.07644936843457335</v>
+      </c>
+      <c r="T16">
+        <v>0.08408925488970122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.695328</v>
+      </c>
+      <c r="I17">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J17">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.9183924999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.836785</v>
+      </c>
+      <c r="O17">
+        <v>0.001738715394637578</v>
+      </c>
+      <c r="P17">
+        <v>0.001159815792949767</v>
+      </c>
+      <c r="Q17">
+        <v>0.5189921734133334</v>
+      </c>
+      <c r="R17">
+        <v>3.11395304048</v>
+      </c>
+      <c r="S17">
+        <v>0.0002424286224009978</v>
+      </c>
+      <c r="T17">
+        <v>0.0001777703129017825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.0982905</v>
+      </c>
+      <c r="H18">
+        <v>2.196581</v>
+      </c>
+      <c r="I18">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J18">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.772999</v>
+      </c>
+      <c r="N18">
+        <v>2.318997</v>
+      </c>
+      <c r="O18">
+        <v>0.001463454091077021</v>
+      </c>
+      <c r="P18">
+        <v>0.001464302759660565</v>
+      </c>
+      <c r="Q18">
+        <v>0.8489774582095</v>
+      </c>
+      <c r="R18">
+        <v>5.093864749257</v>
+      </c>
+      <c r="S18">
+        <v>0.0003965694401316423</v>
+      </c>
+      <c r="T18">
+        <v>0.0002908001240170252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.0982905</v>
+      </c>
+      <c r="H19">
+        <v>2.196581</v>
+      </c>
+      <c r="I19">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J19">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>236.8971606666667</v>
+      </c>
+      <c r="N19">
+        <v>710.691482</v>
+      </c>
+      <c r="O19">
+        <v>0.4484974999219451</v>
+      </c>
+      <c r="P19">
+        <v>0.4487575871636991</v>
+      </c>
+      <c r="Q19">
+        <v>260.1819010371736</v>
+      </c>
+      <c r="R19">
+        <v>1561.091406223042</v>
+      </c>
+      <c r="S19">
+        <v>0.1215346648240887</v>
+      </c>
+      <c r="T19">
+        <v>0.0891200683327505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.0982905</v>
+      </c>
+      <c r="H20">
+        <v>2.196581</v>
+      </c>
+      <c r="I20">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J20">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>289.6131896666666</v>
+      </c>
+      <c r="N20">
+        <v>868.839569</v>
+      </c>
+      <c r="O20">
+        <v>0.5483003305923404</v>
+      </c>
+      <c r="P20">
+        <v>0.5486182942836907</v>
+      </c>
+      <c r="Q20">
+        <v>318.0794148855982</v>
+      </c>
+      <c r="R20">
+        <v>1908.476489313589</v>
+      </c>
+      <c r="S20">
+        <v>0.1485794166368251</v>
+      </c>
+      <c r="T20">
+        <v>0.1089516952441503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.0982905</v>
+      </c>
+      <c r="H21">
+        <v>2.196581</v>
+      </c>
+      <c r="I21">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J21">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.9183924999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.836785</v>
+      </c>
+      <c r="O21">
+        <v>0.001738715394637578</v>
+      </c>
+      <c r="P21">
+        <v>0.001159815792949767</v>
+      </c>
+      <c r="Q21">
+        <v>1.00866175802125</v>
+      </c>
+      <c r="R21">
+        <v>4.034647032085</v>
+      </c>
+      <c r="S21">
+        <v>0.0004711602467093739</v>
+      </c>
+      <c r="T21">
+        <v>0.0002303311758456831</v>
       </c>
     </row>
   </sheetData>
